--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_26.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1555086.303125941</v>
+        <v>1579358.111532461</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.7684111175</v>
+        <v>713587.7684111178</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6881199.292986408</v>
+        <v>6881199.292986406</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30.24678523090114</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>196.9826481283071</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -701,10 +701,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>241.0142888776591</v>
@@ -756,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -792,10 +792,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>124.9970695510301</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>147.2379120664689</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -902,22 +902,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>67.66123027986571</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>193.4600505471182</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,10 +938,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1023,10 +1023,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>51.12024601807693</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1139,13 +1139,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F8" t="n">
-        <v>6.876045741711437</v>
-      </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>30.24678523090109</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>190.3453970742849</v>
       </c>
     </row>
     <row r="9">
@@ -1227,13 +1227,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>63.24215619956615</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1260,10 +1260,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>24.38096634370163</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>140.979167903347</v>
+        <v>230.2007569232755</v>
       </c>
       <c r="H11" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,10 +1415,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T11" t="n">
         <v>220.5164804230398</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1449,10 +1449,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>109.3681045956056</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1503,7 +1503,7 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
-        <v>15.13518083054779</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1546,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>21.38816470214937</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S13" t="n">
-        <v>96.06064116356407</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1610,22 +1610,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>230.2007569232757</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,22 +1652,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>48.89452557051471</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1683,13 +1683,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7.425224531301852</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>113.4883178883723</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1731,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9206407878966</v>
@@ -1780,13 +1780,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>103.3249685652703</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,13 +1807,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>96.06064116356411</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1856,13 +1856,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>140.9791679033473</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T17" t="n">
         <v>220.5164804230398</v>
@@ -1904,10 +1904,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>117.3450705775786</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>165.8272126914158</v>
@@ -1977,7 +1977,7 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U18" t="n">
-        <v>15.13518083054801</v>
+        <v>95.71876532882382</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>81.63772211848431</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.0297007843443</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>261.4697023004217</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>265.7301653101237</v>
+        <v>69.01670059309966</v>
       </c>
       <c r="G20" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2166,19 +2166,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I21" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,16 +2208,16 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T21" t="n">
-        <v>174.1736765502211</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>94.93646306816267</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2281,16 +2281,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>96.06064116356384</v>
       </c>
       <c r="T22" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>98.68313739545462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,10 +2330,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>56.06257007945281</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>158.4267777054073</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,13 +2394,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>36.69466582748378</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -2409,13 +2409,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>47.89995653992312</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2448,22 +2448,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2530,16 +2530,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>73.36175976093789</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>38.97640474817464</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2564,10 +2564,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>179.372059866102</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2615,13 +2615,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>269.8404510156489</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I27" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2694,13 +2694,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>48.98427584501901</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0.9304267702663515</v>
       </c>
     </row>
     <row r="28">
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>145.6674229028286</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2770,10 +2770,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>38.97640474817464</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>197.5113555684267</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>222.4009389003661</v>
       </c>
     </row>
     <row r="30">
@@ -2871,7 +2871,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>77.14685239388902</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -2922,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>156.133336566493</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2931,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -3001,22 +3001,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>98.6831373954543</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>38.97640474817464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,16 +3074,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S32" t="n">
-        <v>175.8455407222772</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T32" t="n">
-        <v>220.5164804230398</v>
+        <v>146.806039068809</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3114,13 +3114,13 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>88.00880902957773</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S33" t="n">
         <v>165.8272126914158</v>
@@ -3174,7 +3174,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>76.07967080018476</v>
       </c>
     </row>
     <row r="34">
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>42.88504894832682</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>30.44996741998411</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3229,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3278,13 +3278,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>317.9232000058213</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H35" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I35" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,28 +3311,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>29.53916830611516</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,16 +3342,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>88.00880902957773</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>134.4493240258092</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S36" t="n">
         <v>165.8272126914158</v>
@@ -3405,13 +3405,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>99.78974769572875</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>38.97640474817491</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3484,10 +3484,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,19 +3500,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>338.0913843196637</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>289.7197420194587</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3548,19 +3548,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>88.00880902957773</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3630,13 +3630,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9206407878966</v>
+        <v>191.9638931116298</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3661,13 +3661,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>30.44996741998411</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>98.6831373954543</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3752,13 +3752,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H41" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,28 +3785,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T41" t="n">
-        <v>23.09588249222454</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>237.2391983702847</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,28 +3816,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,16 +3864,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>220.8276677038028</v>
+        <v>42.28735054302958</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3882,10 +3882,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>145.6674229028285</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>34.65343661111034</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3977,16 +3977,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>205.099098045714</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,19 +4025,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T44" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>103.0947768283672</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4053,28 +4053,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>103.9172978959949</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H45" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,28 +4101,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>48.98427584501901</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4132,19 +4132,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>73.36175976093791</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>30.44996741998436</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.68395448076474</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C2" t="n">
-        <v>41.68395448076474</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D2" t="n">
-        <v>41.68395448076474</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E2" t="n">
-        <v>41.68395448076474</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F2" t="n">
         <v>34.73845373156126</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>315.6850394389064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y2" t="n">
-        <v>72.23626279480629</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4422,37 +4422,37 @@
         <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>588.4532163200711</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>462.1935501069094</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V3" t="n">
-        <v>227.0414418751666</v>
+        <v>110.334904905842</v>
       </c>
       <c r="W3" t="n">
-        <v>227.0414418751666</v>
+        <v>110.334904905842</v>
       </c>
       <c r="X3" t="n">
-        <v>227.0414418751666</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="4">
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>315.6850394389064</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C5" t="n">
-        <v>315.6850394389064</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D5" t="n">
-        <v>315.6850394389064</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E5" t="n">
-        <v>315.6850394389064</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F5" t="n">
-        <v>247.340362388537</v>
+        <v>226.7653248291326</v>
       </c>
       <c r="G5" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>559.1338160830064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y5" t="n">
-        <v>315.6850394389064</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4650,19 +4650,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4671,25 +4671,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="U6" t="n">
-        <v>487.2836868729568</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="V6" t="n">
-        <v>487.2836868729568</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="W6" t="n">
-        <v>435.6470747334852</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="X6" t="n">
-        <v>227.7955745279523</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.03527576299844</v>
+        <v>817.1412885554689</v>
       </c>
     </row>
     <row r="7">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>285.1327311248648</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C8" t="n">
-        <v>285.1327311248648</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D8" t="n">
-        <v>285.1327311248648</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E8" t="n">
-        <v>41.68395448076474</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F8" t="n">
-        <v>34.73845373156126</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4826,28 +4826,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>772.0302844130649</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>528.5815077689649</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>83.91624162114607</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>83.91624162114607</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>83.91624162114607</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>83.91624162114607</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>83.91624162114607</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>83.91624162114607</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4890,10 +4890,10 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O9" t="n">
         <v>712.019119383956</v>
@@ -4908,25 +4908,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>838.2603873325102</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>838.2603873325102</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>838.2603873325102</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V9" t="n">
-        <v>603.1082791007675</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W9" t="n">
-        <v>603.1082791007675</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="X9" t="n">
-        <v>395.2567788952347</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="Y9" t="n">
-        <v>187.4964801302808</v>
+        <v>252.1315786412141</v>
       </c>
     </row>
     <row r="10">
@@ -4978,31 +4978,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
         <v>19.28114311021272</v>
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>701.3269551836285</v>
+        <v>264.9853428539698</v>
       </c>
       <c r="C11" t="n">
-        <v>701.3269551836285</v>
+        <v>264.9853428539698</v>
       </c>
       <c r="D11" t="n">
-        <v>701.3269551836285</v>
+        <v>264.9853428539698</v>
       </c>
       <c r="E11" t="n">
-        <v>701.3269551836285</v>
+        <v>264.9853428539698</v>
       </c>
       <c r="F11" t="n">
-        <v>701.3269551836285</v>
+        <v>264.9853428539698</v>
       </c>
       <c r="G11" t="n">
-        <v>558.9237552812577</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H11" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I11" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J11" t="n">
-        <v>70.13987180521497</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K11" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L11" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M11" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N11" t="n">
         <v>1148.836227140252</v>
@@ -5063,28 +5063,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R11" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S11" t="n">
-        <v>1508.970645214177</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T11" t="n">
-        <v>1286.226725594945</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="U11" t="n">
-        <v>1032.389842527199</v>
+        <v>948.8168854676546</v>
       </c>
       <c r="V11" t="n">
-        <v>701.3269551836285</v>
+        <v>617.753998124084</v>
       </c>
       <c r="W11" t="n">
-        <v>701.3269551836285</v>
+        <v>264.9853428539698</v>
       </c>
       <c r="X11" t="n">
-        <v>701.3269551836285</v>
+        <v>264.9853428539698</v>
       </c>
       <c r="Y11" t="n">
-        <v>701.3269551836285</v>
+        <v>264.9853428539698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>989.6600854869342</v>
+        <v>776.7454794694102</v>
       </c>
       <c r="C12" t="n">
-        <v>815.2070562058072</v>
+        <v>776.7454794694102</v>
       </c>
       <c r="D12" t="n">
         <v>666.272646544556</v>
@@ -5121,22 +5121,22 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K12" t="n">
-        <v>61.20822116384403</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L12" t="n">
-        <v>358.9399761455072</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M12" t="n">
-        <v>758.3581127497702</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N12" t="n">
-        <v>1160.042269026703</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O12" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P12" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q12" t="n">
         <v>1622.966287987609</v>
@@ -5151,19 +5151,19 @@
         <v>1173.163483952</v>
       </c>
       <c r="U12" t="n">
-        <v>1157.875422507002</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V12" t="n">
-        <v>1157.875422507002</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="W12" t="n">
-        <v>1157.875422507002</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="X12" t="n">
-        <v>1157.875422507002</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="Y12" t="n">
-        <v>1157.875422507002</v>
+        <v>944.9608164894781</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.45932575975218</v>
+        <v>129.490276430019</v>
       </c>
       <c r="C13" t="n">
-        <v>32.45932575975218</v>
+        <v>129.490276430019</v>
       </c>
       <c r="D13" t="n">
-        <v>32.45932575975218</v>
+        <v>129.490276430019</v>
       </c>
       <c r="E13" t="n">
-        <v>32.45932575975218</v>
+        <v>129.490276430019</v>
       </c>
       <c r="F13" t="n">
-        <v>32.45932575975218</v>
+        <v>129.490276430019</v>
       </c>
       <c r="G13" t="n">
-        <v>32.45932575975218</v>
+        <v>129.490276430019</v>
       </c>
       <c r="H13" t="n">
-        <v>32.45932575975218</v>
+        <v>129.490276430019</v>
       </c>
       <c r="I13" t="n">
-        <v>32.45932575975218</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="J13" t="n">
         <v>32.45932575975218</v>
@@ -5221,28 +5221,28 @@
         <v>296.5701361642185</v>
       </c>
       <c r="R13" t="n">
-        <v>129.4902764300189</v>
+        <v>129.490276430019</v>
       </c>
       <c r="S13" t="n">
-        <v>32.45932575975218</v>
+        <v>129.490276430019</v>
       </c>
       <c r="T13" t="n">
-        <v>32.45932575975218</v>
+        <v>129.490276430019</v>
       </c>
       <c r="U13" t="n">
-        <v>32.45932575975218</v>
+        <v>129.490276430019</v>
       </c>
       <c r="V13" t="n">
-        <v>32.45932575975218</v>
+        <v>129.490276430019</v>
       </c>
       <c r="W13" t="n">
-        <v>32.45932575975218</v>
+        <v>129.490276430019</v>
       </c>
       <c r="X13" t="n">
-        <v>32.45932575975218</v>
+        <v>129.490276430019</v>
       </c>
       <c r="Y13" t="n">
-        <v>32.45932575975218</v>
+        <v>129.490276430019</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1376.009278487446</v>
+        <v>264.9853428539701</v>
       </c>
       <c r="C14" t="n">
-        <v>1376.009278487446</v>
+        <v>264.9853428539701</v>
       </c>
       <c r="D14" t="n">
-        <v>1017.743579880696</v>
+        <v>264.9853428539701</v>
       </c>
       <c r="E14" t="n">
-        <v>631.9553272824514</v>
+        <v>264.9853428539701</v>
       </c>
       <c r="F14" t="n">
-        <v>222.1153555684087</v>
+        <v>264.9853428539701</v>
       </c>
       <c r="G14" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H14" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I14" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J14" t="n">
-        <v>70.13987180521497</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K14" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L14" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M14" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N14" t="n">
         <v>1148.836227140252</v>
@@ -5300,28 +5300,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R14" t="n">
-        <v>1573.577878320423</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S14" t="n">
-        <v>1376.009278487446</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T14" t="n">
-        <v>1376.009278487446</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="U14" t="n">
-        <v>1376.009278487446</v>
+        <v>948.8168854676549</v>
       </c>
       <c r="V14" t="n">
-        <v>1376.009278487446</v>
+        <v>617.7539981240842</v>
       </c>
       <c r="W14" t="n">
-        <v>1376.009278487446</v>
+        <v>264.9853428539701</v>
       </c>
       <c r="X14" t="n">
-        <v>1376.009278487446</v>
+        <v>264.9853428539701</v>
       </c>
       <c r="Y14" t="n">
-        <v>1376.009278487446</v>
+        <v>264.9853428539701</v>
       </c>
     </row>
     <row r="15">
@@ -5331,43 +5331,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>32.45932575975218</v>
+        <v>321.5470195745886</v>
       </c>
       <c r="C15" t="n">
-        <v>32.45932575975218</v>
+        <v>147.0939902934616</v>
       </c>
       <c r="D15" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E15" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F15" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G15" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H15" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I15" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J15" t="n">
-        <v>61.20822116384403</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K15" t="n">
-        <v>61.20822116384403</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L15" t="n">
         <v>358.9399761455072</v>
       </c>
       <c r="M15" t="n">
-        <v>656.0248753321102</v>
+        <v>656.0248753321104</v>
       </c>
       <c r="N15" t="n">
-        <v>1057.709031609043</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O15" t="n">
         <v>1380.722538783602</v>
@@ -5379,28 +5379,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R15" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S15" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T15" t="n">
-        <v>1173.163483952</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U15" t="n">
-        <v>944.9608164894781</v>
+        <v>1394.763620525088</v>
       </c>
       <c r="V15" t="n">
-        <v>709.8087082577354</v>
+        <v>1159.611512293345</v>
       </c>
       <c r="W15" t="n">
-        <v>455.5713515295337</v>
+        <v>905.3741555651434</v>
       </c>
       <c r="X15" t="n">
-        <v>247.7198513240009</v>
+        <v>697.5226553596106</v>
       </c>
       <c r="Y15" t="n">
-        <v>39.95955255904698</v>
+        <v>489.7623565946566</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C16" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D16" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E16" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F16" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G16" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H16" t="n">
-        <v>256.8779464865154</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I16" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J16" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K16" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L16" t="n">
         <v>107.0302722280248</v>
@@ -5455,31 +5455,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q16" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="R16" t="n">
-        <v>361.2466016029501</v>
+        <v>129.490276430019</v>
       </c>
       <c r="S16" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="T16" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="U16" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="V16" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W16" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X16" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y16" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>701.3269551836289</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C17" t="n">
-        <v>701.3269551836289</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D17" t="n">
-        <v>701.3269551836289</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E17" t="n">
-        <v>701.3269551836289</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F17" t="n">
-        <v>701.3269551836289</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G17" t="n">
-        <v>558.9237552812579</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H17" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I17" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J17" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521519</v>
       </c>
       <c r="K17" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011321</v>
       </c>
       <c r="L17" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M17" t="n">
         <v>838.8947028941458</v>
@@ -5528,37 +5528,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O17" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P17" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q17" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R17" t="n">
         <v>1508.970645214178</v>
       </c>
       <c r="S17" t="n">
-        <v>1508.970645214178</v>
+        <v>1311.402045381202</v>
       </c>
       <c r="T17" t="n">
-        <v>1286.226725594945</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U17" t="n">
-        <v>1032.3898425272</v>
+        <v>834.8212426942234</v>
       </c>
       <c r="V17" t="n">
-        <v>701.3269551836289</v>
+        <v>503.7583553506528</v>
       </c>
       <c r="W17" t="n">
-        <v>701.3269551836289</v>
+        <v>150.9897000805386</v>
       </c>
       <c r="X17" t="n">
-        <v>701.3269551836289</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y17" t="n">
-        <v>701.3269551836289</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="18">
@@ -5592,37 +5592,37 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J18" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K18" t="n">
-        <v>32.45932575975219</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L18" t="n">
-        <v>330.1910807414154</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M18" t="n">
-        <v>656.0248753321104</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N18" t="n">
-        <v>1057.709031609044</v>
+        <v>1335.799553443796</v>
       </c>
       <c r="O18" t="n">
         <v>1380.722538783602</v>
       </c>
       <c r="P18" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q18" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R18" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S18" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T18" t="n">
-        <v>1173.163483952</v>
+        <v>1254.561044051269</v>
       </c>
       <c r="U18" t="n">
         <v>1157.875422507002</v>
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>114.9216713339788</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C19" t="n">
         <v>32.45932575975219</v>
@@ -5674,7 +5674,7 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K19" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L19" t="n">
         <v>107.0302722280248</v>
@@ -5704,19 +5704,19 @@
         <v>296.5701361642185</v>
       </c>
       <c r="U19" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="V19" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W19" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X19" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y19" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1622.966287987609</v>
+        <v>846.2271159476759</v>
       </c>
       <c r="C20" t="n">
-        <v>1622.966287987609</v>
+        <v>846.2271159476759</v>
       </c>
       <c r="D20" t="n">
-        <v>1622.966287987609</v>
+        <v>487.9614173409254</v>
       </c>
       <c r="E20" t="n">
-        <v>1237.178035389365</v>
+        <v>102.1731647426811</v>
       </c>
       <c r="F20" t="n">
-        <v>968.7637269953007</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G20" t="n">
-        <v>558.9237552812579</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H20" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I20" t="n">
         <v>32.45932575975219</v>
@@ -5795,7 +5795,7 @@
         <v>1622.966287987609</v>
       </c>
       <c r="Y20" t="n">
-        <v>1622.966287987609</v>
+        <v>1232.826956011798</v>
       </c>
     </row>
     <row r="21">
@@ -5805,46 +5805,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>989.6600854869342</v>
+        <v>466.1403226946672</v>
       </c>
       <c r="C21" t="n">
-        <v>815.2070562058072</v>
+        <v>291.6872934135402</v>
       </c>
       <c r="D21" t="n">
-        <v>666.272646544556</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="E21" t="n">
-        <v>507.0351915391004</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="F21" t="n">
-        <v>360.5006335659854</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="G21" t="n">
-        <v>222.0882603251556</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H21" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I21" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J21" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K21" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L21" t="n">
-        <v>358.9399761455072</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M21" t="n">
-        <v>656.0248753321104</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N21" t="n">
-        <v>1057.709031609044</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O21" t="n">
-        <v>1380.722538783602</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P21" t="n">
         <v>1622.966287987609</v>
@@ -5856,25 +5856,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S21" t="n">
-        <v>1541.568727888341</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T21" t="n">
-        <v>1365.635721271956</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U21" t="n">
-        <v>1365.635721271956</v>
+        <v>1077.268066711432</v>
       </c>
       <c r="V21" t="n">
-        <v>1365.635721271956</v>
+        <v>842.1159584796892</v>
       </c>
       <c r="W21" t="n">
-        <v>1365.635721271956</v>
+        <v>842.1159584796892</v>
       </c>
       <c r="X21" t="n">
-        <v>1365.635721271956</v>
+        <v>842.1159584796892</v>
       </c>
       <c r="Y21" t="n">
-        <v>1157.875422507002</v>
+        <v>634.3556597147353</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="C22" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="D22" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="E22" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="F22" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="G22" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="H22" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="I22" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="J22" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="K22" t="n">
-        <v>40.81344334191285</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L22" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M22" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N22" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O22" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P22" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q22" t="n">
-        <v>361.2466016029501</v>
+        <v>1558.289822548878</v>
       </c>
       <c r="R22" t="n">
-        <v>361.2466016029501</v>
+        <v>1391.209962814678</v>
       </c>
       <c r="S22" t="n">
-        <v>361.2466016029501</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="T22" t="n">
-        <v>132.1392625228377</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="U22" t="n">
-        <v>132.1392625228377</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="V22" t="n">
-        <v>132.1392625228377</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="W22" t="n">
-        <v>132.1392625228377</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="X22" t="n">
-        <v>132.1392625228377</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="Y22" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>32.45932575975218</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="C23" t="n">
-        <v>32.45932575975218</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="D23" t="n">
-        <v>32.45932575975218</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="E23" t="n">
-        <v>32.45932575975218</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="F23" t="n">
-        <v>32.45932575975218</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="G23" t="n">
-        <v>32.45932575975218</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H23" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I23" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J23" t="n">
         <v>70.13987180521505</v>
@@ -5993,7 +5993,7 @@
         <v>247.3580469011318</v>
       </c>
       <c r="L23" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M23" t="n">
         <v>838.8947028941454</v>
@@ -6014,25 +6014,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S23" t="n">
-        <v>1566.337429321495</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T23" t="n">
-        <v>1343.593509702263</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U23" t="n">
-        <v>1089.756626634517</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V23" t="n">
-        <v>758.6937392909463</v>
+        <v>1291.903400644038</v>
       </c>
       <c r="W23" t="n">
-        <v>405.9250840208321</v>
+        <v>939.1347453739243</v>
       </c>
       <c r="X23" t="n">
-        <v>32.45932575975218</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="Y23" t="n">
-        <v>32.45932575975218</v>
+        <v>779.1076971866441</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6042,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>549.7496870371101</v>
+        <v>958.7085033988383</v>
       </c>
       <c r="C24" t="n">
-        <v>375.2966577559831</v>
+        <v>784.2554741177113</v>
       </c>
       <c r="D24" t="n">
-        <v>338.2313387383227</v>
+        <v>635.32106445646</v>
       </c>
       <c r="E24" t="n">
-        <v>178.9938837328672</v>
+        <v>476.0836094510045</v>
       </c>
       <c r="F24" t="n">
-        <v>32.45932575975218</v>
+        <v>329.5490514778895</v>
       </c>
       <c r="G24" t="n">
-        <v>32.45932575975218</v>
+        <v>191.1366782370598</v>
       </c>
       <c r="H24" t="n">
-        <v>32.45932575975218</v>
+        <v>80.84312024452302</v>
       </c>
       <c r="I24" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J24" t="n">
         <v>61.20822116384403</v>
       </c>
       <c r="K24" t="n">
-        <v>61.20822116384403</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L24" t="n">
-        <v>358.9399761455072</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M24" t="n">
-        <v>758.3581127497702</v>
+        <v>546.7891136313477</v>
       </c>
       <c r="N24" t="n">
-        <v>1160.042269026703</v>
+        <v>948.4732699082811</v>
       </c>
       <c r="O24" t="n">
-        <v>1483.055776201262</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P24" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q24" t="n">
         <v>1622.966287987609</v>
@@ -6096,22 +6096,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T24" t="n">
-        <v>1622.966287987609</v>
+        <v>1422.063279093103</v>
       </c>
       <c r="U24" t="n">
-        <v>1622.966287987609</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="V24" t="n">
-        <v>1387.814179755866</v>
+        <v>958.7085033988383</v>
       </c>
       <c r="W24" t="n">
-        <v>1133.576823027665</v>
+        <v>958.7085033988383</v>
       </c>
       <c r="X24" t="n">
-        <v>925.7253228221321</v>
+        <v>958.7085033988383</v>
       </c>
       <c r="Y24" t="n">
-        <v>717.9650240571782</v>
+        <v>958.7085033988383</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="C25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="D25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="E25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="F25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="G25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="H25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="I25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="J25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="K25" t="n">
-        <v>40.81344334191284</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L25" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M25" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N25" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O25" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U25" t="n">
-        <v>287.1438139656391</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V25" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W25" t="n">
-        <v>32.45932575975218</v>
+        <v>1333.549117950649</v>
       </c>
       <c r="X25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="Y25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>623.4831963284435</v>
+        <v>401.4218427001639</v>
       </c>
       <c r="C26" t="n">
-        <v>623.4831963284435</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D26" t="n">
-        <v>623.4831963284435</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E26" t="n">
-        <v>623.4831963284435</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F26" t="n">
-        <v>442.2992974737949</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G26" t="n">
         <v>32.45932575975218</v>
@@ -6224,16 +6224,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J26" t="n">
-        <v>70.13987180521497</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K26" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L26" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M26" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N26" t="n">
         <v>1148.836227140252</v>
@@ -6263,13 +6263,13 @@
         <v>1400.222368368377</v>
       </c>
       <c r="W26" t="n">
-        <v>1400.222368368377</v>
+        <v>1047.453713098263</v>
       </c>
       <c r="X26" t="n">
-        <v>1400.222368368377</v>
+        <v>673.987954837183</v>
       </c>
       <c r="Y26" t="n">
-        <v>1010.083036392565</v>
+        <v>401.4218427001639</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>989.6600854869342</v>
+        <v>910.3247089140674</v>
       </c>
       <c r="C27" t="n">
-        <v>815.2070562058072</v>
+        <v>735.8716796329404</v>
       </c>
       <c r="D27" t="n">
-        <v>666.272646544556</v>
+        <v>586.9372699716891</v>
       </c>
       <c r="E27" t="n">
-        <v>507.0351915391004</v>
+        <v>427.6998149662337</v>
       </c>
       <c r="F27" t="n">
-        <v>360.5006335659854</v>
+        <v>281.1652569931186</v>
       </c>
       <c r="G27" t="n">
-        <v>222.0882603251556</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H27" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I27" t="n">
         <v>32.45932575975218</v>
@@ -6306,19 +6306,19 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K27" t="n">
-        <v>201.1187329501917</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L27" t="n">
-        <v>498.8504879318549</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M27" t="n">
-        <v>898.2686245361178</v>
+        <v>758.3581127497702</v>
       </c>
       <c r="N27" t="n">
-        <v>1299.952780813051</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O27" t="n">
-        <v>1622.966287987609</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P27" t="n">
         <v>1622.966287987609</v>
@@ -6327,28 +6327,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R27" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S27" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T27" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="U27" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="V27" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="W27" t="n">
-        <v>1573.487221477489</v>
+        <v>1287.331371160139</v>
       </c>
       <c r="X27" t="n">
-        <v>1365.635721271956</v>
+        <v>1079.479870954606</v>
       </c>
       <c r="Y27" t="n">
-        <v>1157.875422507002</v>
+        <v>1078.540045934135</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.5981367727104</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="C28" t="n">
-        <v>179.5981367727104</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="D28" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="E28" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="F28" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="G28" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="H28" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="I28" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="J28" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K28" t="n">
-        <v>40.81344334191284</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L28" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M28" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N28" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O28" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P28" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q28" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R28" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S28" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T28" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U28" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V28" t="n">
-        <v>361.2466016029501</v>
+        <v>1583.596182181372</v>
       </c>
       <c r="W28" t="n">
-        <v>361.2466016029501</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="X28" t="n">
-        <v>361.2466016029501</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="Y28" t="n">
-        <v>361.2466016029501</v>
+        <v>1294.179012144411</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>617.753998124084</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="C29" t="n">
-        <v>617.753998124084</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="D29" t="n">
-        <v>617.753998124084</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="E29" t="n">
-        <v>231.9657455258397</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F29" t="n">
         <v>32.45932575975218</v>
@@ -6488,25 +6488,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S29" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T29" t="n">
-        <v>1202.653768535401</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U29" t="n">
-        <v>948.8168854676546</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="V29" t="n">
-        <v>617.753998124084</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="W29" t="n">
-        <v>617.753998124084</v>
+        <v>1016.360749649749</v>
       </c>
       <c r="X29" t="n">
-        <v>617.753998124084</v>
+        <v>642.8949913886693</v>
       </c>
       <c r="Y29" t="n">
-        <v>617.753998124084</v>
+        <v>418.2475783579964</v>
       </c>
     </row>
     <row r="30">
@@ -6516,7 +6516,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>800.0311509215306</v>
+        <v>703.5042351695845</v>
       </c>
       <c r="C30" t="n">
         <v>625.5781216404037</v>
@@ -6540,16 +6540,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J30" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K30" t="n">
-        <v>61.20822116384403</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L30" t="n">
-        <v>358.9399761455072</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M30" t="n">
-        <v>656.0248753321102</v>
+        <v>905.36650176277</v>
       </c>
       <c r="N30" t="n">
         <v>1057.709031609043</v>
@@ -6570,22 +6570,22 @@
         <v>1541.568727888341</v>
       </c>
       <c r="T30" t="n">
-        <v>1383.858286912085</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="U30" t="n">
-        <v>1383.858286912085</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="V30" t="n">
-        <v>1383.858286912085</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="W30" t="n">
-        <v>1383.858286912085</v>
+        <v>1287.331371160139</v>
       </c>
       <c r="X30" t="n">
-        <v>1176.006786706552</v>
+        <v>1079.479870954606</v>
       </c>
       <c r="Y30" t="n">
-        <v>968.2464879415986</v>
+        <v>871.7195721896526</v>
       </c>
     </row>
     <row r="31">
@@ -6649,19 +6649,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T31" t="n">
-        <v>1622.966287987609</v>
+        <v>1393.858948907497</v>
       </c>
       <c r="U31" t="n">
-        <v>1622.966287987609</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="V31" t="n">
-        <v>1622.966287987609</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="W31" t="n">
-        <v>1333.549117950648</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="X31" t="n">
-        <v>1333.549117950648</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="Y31" t="n">
         <v>1294.179012144411</v>
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>968.7637269953004</v>
+        <v>776.5132769647469</v>
       </c>
       <c r="C32" t="n">
-        <v>968.7637269953004</v>
+        <v>776.5132769647469</v>
       </c>
       <c r="D32" t="n">
-        <v>968.7637269953004</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="E32" t="n">
-        <v>968.7637269953004</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F32" t="n">
-        <v>968.7637269953004</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G32" t="n">
-        <v>558.9237552812577</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H32" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I32" t="n">
         <v>32.45932575975218</v>
@@ -6722,28 +6722,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R32" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S32" t="n">
-        <v>1445.344529682279</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T32" t="n">
-        <v>1222.600610063046</v>
+        <v>1163.113117028869</v>
       </c>
       <c r="U32" t="n">
-        <v>968.7637269953004</v>
+        <v>1163.113117028869</v>
       </c>
       <c r="V32" t="n">
-        <v>968.7637269953004</v>
+        <v>1163.113117028869</v>
       </c>
       <c r="W32" t="n">
-        <v>968.7637269953004</v>
+        <v>1163.113117028869</v>
       </c>
       <c r="X32" t="n">
-        <v>968.7637269953004</v>
+        <v>1163.113117028869</v>
       </c>
       <c r="Y32" t="n">
-        <v>968.7637269953004</v>
+        <v>1163.113117028869</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>121.3571126583155</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="C33" t="n">
-        <v>121.3571126583155</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="D33" t="n">
-        <v>121.3571126583155</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="E33" t="n">
-        <v>32.45932575975218</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="F33" t="n">
-        <v>32.45932575975218</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G33" t="n">
         <v>32.45932575975218</v>
@@ -6777,22 +6777,22 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J33" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K33" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L33" t="n">
-        <v>330.1910807414154</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M33" t="n">
-        <v>729.6092173456783</v>
+        <v>758.3581127497702</v>
       </c>
       <c r="N33" t="n">
-        <v>1131.293373622612</v>
+        <v>1160.042269026703</v>
       </c>
       <c r="O33" t="n">
-        <v>1454.30688079717</v>
+        <v>1483.055776201262</v>
       </c>
       <c r="P33" t="n">
         <v>1622.966287987609</v>
@@ -6801,28 +6801,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R33" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S33" t="n">
-        <v>1455.464052945775</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T33" t="n">
-        <v>1254.561044051268</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U33" t="n">
-        <v>1026.358376588747</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V33" t="n">
-        <v>791.2062683570039</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="W33" t="n">
-        <v>536.9689116288023</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="X33" t="n">
-        <v>329.1174114232695</v>
+        <v>247.7198513240009</v>
       </c>
       <c r="Y33" t="n">
-        <v>121.3571126583155</v>
+        <v>170.8716990005819</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="C34" t="n">
-        <v>32.45932575975218</v>
+        <v>1592.20874513914</v>
       </c>
       <c r="D34" t="n">
-        <v>32.45932575975218</v>
+        <v>1442.092105726805</v>
       </c>
       <c r="E34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="F34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="G34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="H34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="I34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="J34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K34" t="n">
-        <v>40.81344334191284</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L34" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M34" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N34" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O34" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P34" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q34" t="n">
-        <v>296.5701361642185</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R34" t="n">
-        <v>296.5701361642185</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S34" t="n">
-        <v>296.5701361642185</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T34" t="n">
-        <v>296.5701361642185</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U34" t="n">
-        <v>296.5701361642185</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V34" t="n">
-        <v>296.5701361642185</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W34" t="n">
-        <v>296.5701361642185</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X34" t="n">
-        <v>296.5701361642185</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y34" t="n">
-        <v>75.77755702068836</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>880.0583007416833</v>
+        <v>1148.070214127056</v>
       </c>
       <c r="C35" t="n">
-        <v>880.0583007416833</v>
+        <v>779.107697186644</v>
       </c>
       <c r="D35" t="n">
-        <v>880.0583007416833</v>
+        <v>779.107697186644</v>
       </c>
       <c r="E35" t="n">
-        <v>880.0583007416833</v>
+        <v>779.107697186644</v>
       </c>
       <c r="F35" t="n">
-        <v>880.0583007416833</v>
+        <v>779.107697186644</v>
       </c>
       <c r="G35" t="n">
-        <v>558.9237552812577</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H35" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I35" t="n">
         <v>32.45932575975218</v>
@@ -6938,13 +6938,13 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K35" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L35" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M35" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N35" t="n">
         <v>1148.836227140252</v>
@@ -6959,28 +6959,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R35" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S35" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T35" t="n">
-        <v>1622.966287987609</v>
+        <v>1479.133101470627</v>
       </c>
       <c r="U35" t="n">
-        <v>1622.966287987609</v>
+        <v>1479.133101470627</v>
       </c>
       <c r="V35" t="n">
-        <v>1622.966287987609</v>
+        <v>1148.070214127056</v>
       </c>
       <c r="W35" t="n">
-        <v>1270.197632717495</v>
+        <v>1148.070214127056</v>
       </c>
       <c r="X35" t="n">
-        <v>1270.197632717495</v>
+        <v>1148.070214127056</v>
       </c>
       <c r="Y35" t="n">
-        <v>880.0583007416833</v>
+        <v>1148.070214127056</v>
       </c>
     </row>
     <row r="36">
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>32.45932575975218</v>
+        <v>501.9572080522025</v>
       </c>
       <c r="C36" t="n">
-        <v>32.45932575975218</v>
+        <v>327.5041787710755</v>
       </c>
       <c r="D36" t="n">
-        <v>32.45932575975218</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="E36" t="n">
         <v>32.45932575975218</v>
@@ -7014,52 +7014,52 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J36" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K36" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L36" t="n">
-        <v>358.9399761455072</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M36" t="n">
-        <v>758.3581127497702</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N36" t="n">
-        <v>1057.709031609043</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O36" t="n">
-        <v>1380.722538783602</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P36" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q36" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R36" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S36" t="n">
-        <v>1455.464052945775</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T36" t="n">
-        <v>1254.561044051268</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U36" t="n">
-        <v>1026.358376588747</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V36" t="n">
-        <v>791.2062683570039</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="W36" t="n">
-        <v>536.9689116288023</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="X36" t="n">
-        <v>329.1174114232695</v>
+        <v>501.9572080522025</v>
       </c>
       <c r="Y36" t="n">
-        <v>121.3571126583155</v>
+        <v>501.9572080522025</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>71.82943156598947</v>
+        <v>133.2570507049327</v>
       </c>
       <c r="C37" t="n">
-        <v>71.82943156598947</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D37" t="n">
-        <v>71.82943156598947</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E37" t="n">
-        <v>71.82943156598947</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F37" t="n">
-        <v>71.82943156598947</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G37" t="n">
-        <v>71.82943156598947</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H37" t="n">
         <v>32.45932575975218</v>
@@ -7132,13 +7132,13 @@
         <v>361.2466016029501</v>
       </c>
       <c r="W37" t="n">
-        <v>71.82943156598947</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X37" t="n">
-        <v>71.82943156598947</v>
+        <v>133.2570507049327</v>
       </c>
       <c r="Y37" t="n">
-        <v>71.82943156598947</v>
+        <v>133.2570507049327</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>732.2314731742438</v>
+        <v>1069.159481024806</v>
       </c>
       <c r="C38" t="n">
-        <v>390.7250243665027</v>
+        <v>1069.159481024806</v>
       </c>
       <c r="D38" t="n">
-        <v>32.45932575975218</v>
+        <v>710.8937824180557</v>
       </c>
       <c r="E38" t="n">
-        <v>32.45932575975218</v>
+        <v>325.1055298198115</v>
       </c>
       <c r="F38" t="n">
         <v>32.45932575975218</v>
@@ -7175,13 +7175,13 @@
         <v>70.13987180521505</v>
       </c>
       <c r="K38" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L38" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
@@ -7196,28 +7196,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R38" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S38" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T38" t="n">
-        <v>1508.970645214177</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U38" t="n">
-        <v>1508.970645214177</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="V38" t="n">
-        <v>1508.970645214177</v>
+        <v>1069.159481024806</v>
       </c>
       <c r="W38" t="n">
-        <v>1508.970645214177</v>
+        <v>1069.159481024806</v>
       </c>
       <c r="X38" t="n">
-        <v>1508.970645214177</v>
+        <v>1069.159481024806</v>
       </c>
       <c r="Y38" t="n">
-        <v>1118.831313238366</v>
+        <v>1069.159481024806</v>
       </c>
     </row>
     <row r="39">
@@ -7227,10 +7227,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>32.45932575975218</v>
+        <v>355.8467647021305</v>
       </c>
       <c r="C39" t="n">
-        <v>32.45932575975218</v>
+        <v>181.3937354210034</v>
       </c>
       <c r="D39" t="n">
         <v>32.45932575975218</v>
@@ -7251,25 +7251,25 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J39" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K39" t="n">
-        <v>208.2166101768439</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L39" t="n">
-        <v>505.948365158507</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M39" t="n">
-        <v>905.36650176277</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N39" t="n">
-        <v>1057.709031609043</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O39" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P39" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q39" t="n">
         <v>1622.966287987609</v>
@@ -7278,25 +7278,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S39" t="n">
-        <v>1455.464052945775</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T39" t="n">
-        <v>1254.561044051268</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U39" t="n">
-        <v>1026.358376588747</v>
+        <v>1429.063365652629</v>
       </c>
       <c r="V39" t="n">
-        <v>791.2062683570039</v>
+        <v>1193.911257420887</v>
       </c>
       <c r="W39" t="n">
-        <v>536.9689116288023</v>
+        <v>939.6739006926853</v>
       </c>
       <c r="X39" t="n">
-        <v>329.1174114232695</v>
+        <v>731.8224004871524</v>
       </c>
       <c r="Y39" t="n">
-        <v>121.3571126583155</v>
+        <v>524.0621017221986</v>
       </c>
     </row>
     <row r="40">
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="C40" t="n">
-        <v>1294.179012144411</v>
+        <v>1592.20874513914</v>
       </c>
       <c r="D40" t="n">
-        <v>1294.179012144411</v>
+        <v>1442.092105726805</v>
       </c>
       <c r="E40" t="n">
         <v>1294.179012144411</v>
@@ -7357,25 +7357,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S40" t="n">
-        <v>1523.286351224524</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T40" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U40" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V40" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W40" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X40" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y40" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="41">
@@ -7385,40 +7385,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>369.2677254726013</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="C41" t="n">
-        <v>369.2677254726013</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="D41" t="n">
-        <v>369.2677254726013</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="E41" t="n">
-        <v>369.2677254726013</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="F41" t="n">
-        <v>369.2677254726013</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="G41" t="n">
-        <v>369.2677254726013</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="H41" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I41" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J41" t="n">
-        <v>70.13987180521491</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K41" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L41" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M41" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N41" t="n">
         <v>1148.836227140252</v>
@@ -7433,28 +7433,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R41" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S41" t="n">
-        <v>1508.970645214177</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T41" t="n">
-        <v>1485.641470979607</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="U41" t="n">
-        <v>1485.641470979607</v>
+        <v>963.0182146260221</v>
       </c>
       <c r="V41" t="n">
-        <v>1485.641470979607</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="W41" t="n">
-        <v>1132.872815709493</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="X41" t="n">
-        <v>759.4070574484131</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="Y41" t="n">
-        <v>369.2677254726013</v>
+        <v>631.9553272824514</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>661.618777680701</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="C42" t="n">
-        <v>487.165748399574</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="D42" t="n">
-        <v>338.2313387383227</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="E42" t="n">
-        <v>178.9938837328672</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F42" t="n">
-        <v>32.45932575975218</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G42" t="n">
-        <v>32.45932575975218</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H42" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I42" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J42" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K42" t="n">
-        <v>147.3709770270845</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L42" t="n">
-        <v>147.3709770270845</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M42" t="n">
-        <v>546.7891136313474</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N42" t="n">
-        <v>948.4732699082806</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O42" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P42" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q42" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R42" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S42" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T42" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U42" t="n">
-        <v>1151.008242640645</v>
+        <v>1580.251792489599</v>
       </c>
       <c r="V42" t="n">
-        <v>915.8561344089026</v>
+        <v>1345.099684257857</v>
       </c>
       <c r="W42" t="n">
-        <v>661.618777680701</v>
+        <v>1090.862327529655</v>
       </c>
       <c r="X42" t="n">
-        <v>661.618777680701</v>
+        <v>883.0108273241224</v>
       </c>
       <c r="Y42" t="n">
-        <v>661.618777680701</v>
+        <v>675.2505285591685</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>32.45932575975218</v>
+        <v>1441.31782315737</v>
       </c>
       <c r="C43" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="D43" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="E43" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="F43" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="G43" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="H43" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="I43" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="J43" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K43" t="n">
-        <v>40.81344334191284</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L43" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M43" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N43" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O43" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P43" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q43" t="n">
-        <v>296.5701361642185</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R43" t="n">
-        <v>296.5701361642185</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S43" t="n">
-        <v>296.5701361642185</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T43" t="n">
-        <v>67.46279708410606</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U43" t="n">
-        <v>67.46279708410606</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V43" t="n">
-        <v>67.46279708410606</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W43" t="n">
-        <v>67.46279708410606</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X43" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y43" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>222.1153555684087</v>
+        <v>1035.258356178821</v>
       </c>
       <c r="C44" t="n">
-        <v>222.1153555684087</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="D44" t="n">
-        <v>222.1153555684087</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="E44" t="n">
-        <v>222.1153555684087</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F44" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G44" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H44" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I44" t="n">
         <v>32.45932575975218</v>
@@ -7673,25 +7673,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S44" t="n">
-        <v>1622.966287987609</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T44" t="n">
-        <v>1400.222368368377</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="U44" t="n">
-        <v>1296.086230157905</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="V44" t="n">
-        <v>965.0233428143345</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="W44" t="n">
-        <v>612.2546875442204</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="X44" t="n">
-        <v>612.2546875442204</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="Y44" t="n">
-        <v>222.1153555684087</v>
+        <v>1035.258356178821</v>
       </c>
     </row>
     <row r="45">
@@ -7701,46 +7701,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>247.7198513240009</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C45" t="n">
-        <v>247.7198513240009</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D45" t="n">
-        <v>247.7198513240009</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E45" t="n">
-        <v>247.7198513240009</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F45" t="n">
-        <v>247.7198513240009</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G45" t="n">
-        <v>142.7528837522889</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H45" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I45" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J45" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K45" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L45" t="n">
-        <v>147.3709770270845</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M45" t="n">
-        <v>546.7891136313474</v>
+        <v>758.3581127497702</v>
       </c>
       <c r="N45" t="n">
-        <v>948.4732699082806</v>
+        <v>1160.042269026703</v>
       </c>
       <c r="O45" t="n">
-        <v>1271.486777082839</v>
+        <v>1483.055776201262</v>
       </c>
       <c r="P45" t="n">
         <v>1513.730526286846</v>
@@ -7749,28 +7749,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R45" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S45" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T45" t="n">
-        <v>1173.163483952</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U45" t="n">
-        <v>944.9608164894781</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V45" t="n">
-        <v>709.8087082577354</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W45" t="n">
-        <v>455.5713515295337</v>
+        <v>1573.487221477489</v>
       </c>
       <c r="X45" t="n">
-        <v>247.7198513240009</v>
+        <v>1365.635721271956</v>
       </c>
       <c r="Y45" t="n">
-        <v>247.7198513240009</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="46">
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C46" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D46" t="n">
-        <v>211.1299621906143</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E46" t="n">
-        <v>63.21686860822123</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F46" t="n">
         <v>32.45932575975218</v>
@@ -7840,16 +7840,16 @@
         <v>361.2466016029501</v>
       </c>
       <c r="V46" t="n">
-        <v>361.2466016029501</v>
+        <v>106.5621133970632</v>
       </c>
       <c r="W46" t="n">
-        <v>361.2466016029501</v>
+        <v>106.5621133970632</v>
       </c>
       <c r="X46" t="n">
-        <v>361.2466016029501</v>
+        <v>106.5621133970632</v>
       </c>
       <c r="Y46" t="n">
-        <v>361.2466016029501</v>
+        <v>106.5621133970632</v>
       </c>
     </row>
   </sheetData>
@@ -7982,7 +7982,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8070,13 +8070,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>185.8815939223662</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,22 +8298,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M6" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,13 +8538,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,16 +8778,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>455.0874215304797</v>
+        <v>63.84875129258623</v>
       </c>
       <c r="O12" t="n">
-        <v>290.4954127942447</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,13 +9006,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>86.93262649026376</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>362.3381572675152</v>
+        <v>362.3381572675153</v>
       </c>
       <c r="N15" t="n">
         <v>455.0874215304797</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>99.73813450275543</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928328</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>391.3774455544767</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>455.0874215304798</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>112.9628022719299</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>99.73813450275543</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K21" t="n">
         <v>86.93262649026376</v>
@@ -9486,16 +9486,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>362.3381572675153</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>455.0874215304798</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444139</v>
       </c>
       <c r="Q21" t="n">
         <v>99.73813450275543</v>
@@ -9717,25 +9717,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>74.46639351210686</v>
       </c>
       <c r="N24" t="n">
-        <v>455.0874215304797</v>
+        <v>455.0874215304798</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>215.0958621574522</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>228.2563757694028</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,13 +9963,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>455.0874215304797</v>
+        <v>351.7205150479949</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>73.77211287831324</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>99.73813450275543</v>
@@ -10188,19 +10188,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K30" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>362.3381572675152</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>455.0874215304797</v>
+        <v>203.2271928126415</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>86.93262649026376</v>
@@ -10443,7 +10443,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>244.1351504444137</v>
+        <v>215.0958621574522</v>
       </c>
       <c r="Q33" t="n">
         <v>99.73813450275543</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K36" t="n">
         <v>86.93262649026376</v>
@@ -10674,16 +10674,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>351.7205150479949</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.7959972113199</v>
       </c>
       <c r="Q36" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10911,7 +10911,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>203.2271928126415</v>
+        <v>63.84875129258624</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K42" t="n">
-        <v>173.9657132208096</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L42" t="n">
-        <v>70.10119885733474</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>391.3774455544766</v>
       </c>
       <c r="N42" t="n">
         <v>455.0874215304797</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>86.93262649026376</v>
       </c>
       <c r="L45" t="n">
-        <v>186.1735738748421</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11391,7 +11391,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>104.7567089243584</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23270,13 +23270,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>273.7343362271869</v>
+        <v>184.5127472072585</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,10 +23303,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23337,10 +23337,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>38.07696096903312</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23391,7 +23391,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>210.7854599573488</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23434,10 +23434,10 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I13" t="n">
-        <v>147.5019580580808</v>
+        <v>126.1137933559314</v>
       </c>
       <c r="J13" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>123.3497577082893</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T13" t="n">
         <v>226.8162656893113</v>
@@ -23498,22 +23498,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.7135041305339</v>
+        <v>184.5127472072582</v>
       </c>
       <c r="H14" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,22 +23540,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>63.96116077518274</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23571,13 +23571,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>159.1079591185655</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>33.95674767626646</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -23619,13 +23619,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23668,13 +23668,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H16" t="n">
-        <v>56.55224943852487</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,13 +23695,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>219.4103988718534</v>
+        <v>123.3497577082893</v>
       </c>
       <c r="T16" t="n">
         <v>226.8162656893113</v>
@@ -23744,13 +23744,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>273.7343362271866</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23792,10 +23792,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>252.3860301008905</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23856,7 +23856,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23865,7 +23865,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>210.7854599573486</v>
+        <v>130.2018754590728</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>85.60909898014353</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23911,7 +23911,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J19" t="n">
-        <v>74.67247646141476</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3046124576955</v>
+        <v>24.83491015727384</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23966,28 +23966,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>141.1458804315877</v>
+        <v>337.8593451486118</v>
       </c>
       <c r="G20" t="n">
-        <v>8.971932133631583</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24054,19 +24054,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24096,16 +24096,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>24.72030225534053</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9206407878966</v>
+        <v>130.9841777197339</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -24169,16 +24169,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>219.4103988718534</v>
+        <v>123.3497577082895</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U22" t="n">
         <v>286.3046124576955</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>119.9015159566402</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24218,10 +24218,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H23" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>187.7594695105699</v>
@@ -24254,13 +24254,13 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S23" t="n">
-        <v>139.5303437551937</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24269,7 +24269,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>211.3043229730617</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,13 +24282,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>110.750399737155</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -24297,13 +24297,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>78.54202280713804</v>
+        <v>30.64206626721492</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24336,22 +24336,22 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24418,16 +24418,16 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U25" t="n">
-        <v>212.9428526967576</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>186.7332506408625</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,10 +24440,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24452,10 +24452,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>227.5039858756094</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H26" t="n">
         <v>333.4403157157206</v>
@@ -24503,13 +24503,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>116.3974876404047</v>
       </c>
     </row>
     <row r="27">
@@ -24540,7 +24540,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,7 +24567,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>165.8272126914158</v>
@@ -24582,13 +24582,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>202.7107073159006</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>204.752269007038</v>
       </c>
     </row>
     <row r="28">
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>2.948050115383751</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24658,10 +24658,10 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>213.1612385756534</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24689,7 +24689,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>209.3646901732848</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>414.7135041305339</v>
@@ -24728,25 +24728,25 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>163.8369997556875</v>
       </c>
     </row>
     <row r="30">
@@ -24759,7 +24759,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>95.56164659442672</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -24810,7 +24810,7 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
-        <v>42.76064223906869</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
         <v>225.9206407878966</v>
@@ -24819,7 +24819,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24889,22 +24889,22 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T31" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3046124576955</v>
+        <v>187.6214750622412</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>179.6082486039201</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24914,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,16 +24962,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>19.7473731123693</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>73.71044135423085</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25002,13 +25002,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>69.63627142582321</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>109.1906224126114</v>
@@ -25041,7 +25041,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25062,7 +25062,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>129.6030249771196</v>
       </c>
     </row>
     <row r="34">
@@ -25072,16 +25072,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>136.9469312336105</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>136.7968536786437</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25117,7 +25117,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R34" t="n">
         <v>165.4090611368575</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25154,7 +25154,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25166,13 +25166,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>96.79030412471263</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,28 +25199,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T35" t="n">
-        <v>220.5164804230398</v>
+        <v>190.9773121169247</v>
       </c>
       <c r="U35" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,16 +25230,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>78.52437462028961</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>12.99574153882958</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25278,7 +25278,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25293,13 +25293,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25312,7 +25312,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>67.45707340289908</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25327,7 +25327,7 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H37" t="n">
-        <v>120.9008132556203</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I37" t="n">
         <v>147.5019580580808</v>
@@ -25372,10 +25372,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25388,19 +25388,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>27.18150745134386</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>117.1563037222527</v>
       </c>
       <c r="G38" t="n">
         <v>414.7135041305339</v>
@@ -25436,19 +25436,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S38" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T38" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,13 +25467,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>78.52437462028961</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25518,13 +25518,13 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>33.95674767626679</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25549,13 +25549,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>136.7968536786437</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25597,10 +25597,10 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S40" t="n">
-        <v>120.7272614763991</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U40" t="n">
         <v>286.3046124576955</v>
@@ -25640,13 +25640,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I41" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25673,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S41" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>197.4205979308153</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2985142370684</v>
+        <v>14.05931586678372</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,28 +25704,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,16 +25752,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T42" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U42" t="n">
-        <v>5.092973084093785</v>
+        <v>183.633290244867</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25770,10 +25770,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25783,10 +25783,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>21.57939819579937</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25828,7 +25828,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R43" t="n">
         <v>165.4090611368575</v>
@@ -25837,7 +25837,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U43" t="n">
         <v>286.3046124576955</v>
@@ -25849,7 +25849,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>191.0562187779268</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25865,16 +25865,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>160.1737937252936</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G44" t="n">
         <v>414.7135041305339</v>
@@ -25883,7 +25883,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,19 +25913,19 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S44" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U44" t="n">
-        <v>148.2037374087012</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25941,28 +25941,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>33.11095161242659</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,28 +25989,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>202.7107073159006</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26020,19 +26020,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>106.4702204209994</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>114.9710806029469</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.7266695472104</v>
@@ -26080,7 +26080,7 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>487071.7500704785</v>
+        <v>487071.7500704787</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>487071.7500704788</v>
+        <v>487071.7500704787</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>487071.7500704788</v>
+        <v>487071.7500704787</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>487071.7500704785</v>
+        <v>487071.7500704787</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>487071.7500704784</v>
+        <v>487071.7500704782</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>487071.7500704788</v>
+        <v>487071.7500704784</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>487071.7500704784</v>
+        <v>487071.7500704787</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>487071.7500704785</v>
+        <v>487071.7500704787</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>487071.7500704784</v>
+        <v>487071.7500704782</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>487071.7500704785</v>
+        <v>487071.7500704787</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>487071.7500704788</v>
+        <v>487071.7500704784</v>
       </c>
     </row>
   </sheetData>
@@ -26314,25 +26314,25 @@
         <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
+        <v>533677.1504117841</v>
+      </c>
+      <c r="D2" t="n">
         <v>533677.1504117842</v>
       </c>
-      <c r="D2" t="n">
-        <v>533677.1504117841</v>
-      </c>
       <c r="E2" t="n">
-        <v>277717.5661839886</v>
+        <v>277717.5661839885</v>
       </c>
       <c r="F2" t="n">
-        <v>277717.5661839884</v>
+        <v>277717.5661839885</v>
       </c>
       <c r="G2" t="n">
         <v>277717.5661839885</v>
       </c>
       <c r="H2" t="n">
-        <v>277717.5661839886</v>
+        <v>277717.5661839885</v>
       </c>
       <c r="I2" t="n">
-        <v>277717.5661839883</v>
+        <v>277717.5661839884</v>
       </c>
       <c r="J2" t="n">
         <v>277717.5661839885</v>
@@ -26341,16 +26341,16 @@
         <v>277717.5661839885</v>
       </c>
       <c r="L2" t="n">
+        <v>277717.5661839885</v>
+      </c>
+      <c r="M2" t="n">
+        <v>277717.5661839886</v>
+      </c>
+      <c r="N2" t="n">
         <v>277717.5661839884</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>277717.5661839885</v>
-      </c>
-      <c r="N2" t="n">
-        <v>277717.5661839886</v>
-      </c>
-      <c r="O2" t="n">
-        <v>277717.5661839886</v>
       </c>
       <c r="P2" t="n">
         <v>277717.5661839885</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910621</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298720.6125198924</v>
+        <v>295860.2172754402</v>
       </c>
       <c r="C4" t="n">
-        <v>298720.6125198924</v>
+        <v>295860.2172754402</v>
       </c>
       <c r="D4" t="n">
-        <v>298720.6125198925</v>
+        <v>295860.2172754402</v>
       </c>
       <c r="E4" t="n">
-        <v>20314.86901713244</v>
+        <v>17394.13523139261</v>
       </c>
       <c r="F4" t="n">
-        <v>20314.86901713245</v>
+        <v>17394.13523139261</v>
       </c>
       <c r="G4" t="n">
-        <v>20314.86901713245</v>
+        <v>17394.13523139261</v>
       </c>
       <c r="H4" t="n">
-        <v>20314.86901713245</v>
+        <v>17394.13523139261</v>
       </c>
       <c r="I4" t="n">
-        <v>20314.86901713244</v>
+        <v>17394.13523139261</v>
       </c>
       <c r="J4" t="n">
-        <v>20314.86901713245</v>
+        <v>17394.13523139261</v>
       </c>
       <c r="K4" t="n">
-        <v>20314.86901713245</v>
+        <v>17394.13523139261</v>
       </c>
       <c r="L4" t="n">
-        <v>20314.86901713245</v>
+        <v>17394.13523139261</v>
       </c>
       <c r="M4" t="n">
-        <v>20314.86901713245</v>
+        <v>17394.13523139261</v>
       </c>
       <c r="N4" t="n">
-        <v>20314.86901713245</v>
+        <v>17394.13523139261</v>
       </c>
       <c r="O4" t="n">
-        <v>20314.86901713244</v>
+        <v>17394.13523139261</v>
       </c>
       <c r="P4" t="n">
-        <v>20314.86901713245</v>
+        <v>17394.13523139261</v>
       </c>
     </row>
     <row r="5">
@@ -26479,16 +26479,16 @@
         <v>27864.35291375756</v>
       </c>
       <c r="F5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="G5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375758</v>
       </c>
       <c r="H5" t="n">
         <v>27864.35291375757</v>
       </c>
       <c r="I5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="J5" t="n">
         <v>27864.35291375756</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>105905.8375965822</v>
+        <v>108766.2328410344</v>
       </c>
       <c r="C6" t="n">
-        <v>186675.2691281301</v>
+        <v>189535.6643725822</v>
       </c>
       <c r="D6" t="n">
-        <v>186675.2691281299</v>
+        <v>189535.6643725823</v>
       </c>
       <c r="E6" t="n">
-        <v>62598.17412785186</v>
+        <v>65518.90791359155</v>
       </c>
       <c r="F6" t="n">
-        <v>229538.3442530984</v>
+        <v>232459.0780388383</v>
       </c>
       <c r="G6" t="n">
-        <v>229538.3442530985</v>
+        <v>232459.0780388383</v>
       </c>
       <c r="H6" t="n">
-        <v>229538.3442530986</v>
+        <v>232459.0780388383</v>
       </c>
       <c r="I6" t="n">
-        <v>229538.3442530983</v>
+        <v>232459.0780388382</v>
       </c>
       <c r="J6" t="n">
-        <v>166478.4016539923</v>
+        <v>169399.1354397322</v>
       </c>
       <c r="K6" t="n">
-        <v>229538.3442530985</v>
+        <v>232459.0780388384</v>
       </c>
       <c r="L6" t="n">
-        <v>229538.3442530984</v>
+        <v>232459.0780388383</v>
       </c>
       <c r="M6" t="n">
-        <v>188487.6463906506</v>
+        <v>191408.3801763905</v>
       </c>
       <c r="N6" t="n">
-        <v>229538.3442530986</v>
+        <v>232459.0780388383</v>
       </c>
       <c r="O6" t="n">
-        <v>229538.3442530986</v>
+        <v>232459.0780388384</v>
       </c>
       <c r="P6" t="n">
-        <v>229538.3442530985</v>
+        <v>232459.0780388384</v>
       </c>
     </row>
   </sheetData>
@@ -26750,7 +26750,7 @@
         <v>146.571804419537</v>
       </c>
       <c r="G3" t="n">
-        <v>146.571804419537</v>
+        <v>146.5718044195371</v>
       </c>
       <c r="H3" t="n">
         <v>146.571804419537</v>
@@ -26802,7 +26802,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="G4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="H4" t="n">
         <v>405.7415719969023</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>352.4870564325794</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,10 +27385,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>209.8933976134044</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27421,10 +27421,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27439,10 +27439,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>145.2236497783945</v>
@@ -27476,10 +27476,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27512,10 +27512,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>100.9443125299447</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>85.56267508295639</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27576,13 +27576,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27622,22 +27622,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>339.2148154618457</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>221.8426869680169</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,10 +27658,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27698,22 +27698,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,10 +27743,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>126.3942969708654</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -27755,13 +27755,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>200.5747371428427</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27813,13 +27813,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27859,13 +27859,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27874,7 +27874,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>339.484315447568</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>195.8925415817687</v>
       </c>
     </row>
     <row r="9">
@@ -27947,13 +27947,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>48.99328803693031</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27980,10 +27980,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>147.3022047601362</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -27995,10 +27995,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28050,7 +28050,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>156.0574714863295</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H11" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I11" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J11" t="n">
-        <v>50.01044697629219</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K11" t="n">
-        <v>74.95269614645902</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L11" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M11" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438474</v>
       </c>
       <c r="N11" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O11" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P11" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q11" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R11" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S11" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T11" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31829,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H12" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I12" t="n">
-        <v>10.85461004427703</v>
+        <v>10.85461004427704</v>
       </c>
       <c r="J12" t="n">
-        <v>29.78587961321931</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K12" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L12" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M12" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N12" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O12" t="n">
-        <v>75.01019504100589</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P12" t="n">
-        <v>60.20229453601701</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.24363958326609</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R12" t="n">
-        <v>19.57424965436761</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S12" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T12" t="n">
         <v>1.270749889259948</v>
@@ -31908,19 +31908,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H13" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I13" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J13" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K13" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L13" t="n">
         <v>39.29566048323129</v>
@@ -31932,7 +31932,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O13" t="n">
-        <v>37.35899041172069</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P13" t="n">
         <v>31.96707026225442</v>
@@ -31941,16 +31941,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R13" t="n">
-        <v>11.88433024031196</v>
+        <v>11.88433024031197</v>
       </c>
       <c r="S13" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T13" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01441689879536431</v>
+        <v>0.01441689879536432</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H14" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I14" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J14" t="n">
-        <v>50.01044697629219</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K14" t="n">
-        <v>74.95269614645902</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L14" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M14" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438474</v>
       </c>
       <c r="N14" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O14" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P14" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q14" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R14" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S14" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T14" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,43 +32066,43 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H15" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I15" t="n">
-        <v>10.85461004427703</v>
+        <v>10.85461004427704</v>
       </c>
       <c r="J15" t="n">
-        <v>29.78587961321931</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K15" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L15" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M15" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N15" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O15" t="n">
-        <v>75.01019504100589</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P15" t="n">
-        <v>60.20229453601701</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q15" t="n">
-        <v>40.24363958326609</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R15" t="n">
-        <v>19.57424965436761</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S15" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T15" t="n">
         <v>1.270749889259948</v>
@@ -32145,19 +32145,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H16" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I16" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J16" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K16" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L16" t="n">
         <v>39.29566048323129</v>
@@ -32169,7 +32169,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O16" t="n">
-        <v>37.35899041172069</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P16" t="n">
         <v>31.96707026225442</v>
@@ -32178,16 +32178,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R16" t="n">
-        <v>11.88433024031196</v>
+        <v>11.88433024031197</v>
       </c>
       <c r="S16" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T16" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01441689879536431</v>
+        <v>0.01441689879536432</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011536</v>
       </c>
       <c r="H17" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046566</v>
       </c>
       <c r="I17" t="n">
-        <v>22.71642005983599</v>
+        <v>22.716420059836</v>
       </c>
       <c r="J17" t="n">
-        <v>50.01044697629219</v>
+        <v>50.01044697629221</v>
       </c>
       <c r="K17" t="n">
-        <v>74.95269614645902</v>
+        <v>74.95269614645906</v>
       </c>
       <c r="L17" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044663</v>
       </c>
       <c r="M17" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438474</v>
       </c>
       <c r="N17" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O17" t="n">
-        <v>99.27919642971766</v>
+        <v>99.2791964297177</v>
       </c>
       <c r="P17" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737671</v>
       </c>
       <c r="Q17" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134787</v>
       </c>
       <c r="R17" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545225</v>
       </c>
       <c r="S17" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T17" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809228</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H18" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885101</v>
       </c>
       <c r="I18" t="n">
-        <v>10.85461004427703</v>
+        <v>10.85461004427704</v>
       </c>
       <c r="J18" t="n">
-        <v>29.78587961321931</v>
+        <v>29.78587961321933</v>
       </c>
       <c r="K18" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409525</v>
       </c>
       <c r="L18" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253947</v>
       </c>
       <c r="M18" t="n">
-        <v>79.88163340864766</v>
+        <v>79.8816334086477</v>
       </c>
       <c r="N18" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975594</v>
       </c>
       <c r="O18" t="n">
-        <v>75.01019504100589</v>
+        <v>75.01019504100591</v>
       </c>
       <c r="P18" t="n">
-        <v>60.20229453601701</v>
+        <v>60.20229453601704</v>
       </c>
       <c r="Q18" t="n">
-        <v>40.24363958326609</v>
+        <v>40.24363958326611</v>
       </c>
       <c r="R18" t="n">
-        <v>19.57424965436761</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S18" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422067</v>
       </c>
       <c r="T18" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02074129307823638</v>
+        <v>0.02074129307823639</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H19" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644383</v>
       </c>
       <c r="I19" t="n">
-        <v>7.948516869177517</v>
+        <v>7.94851686917752</v>
       </c>
       <c r="J19" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525803</v>
       </c>
       <c r="K19" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L19" t="n">
-        <v>39.29566048323129</v>
+        <v>39.2956604832313</v>
       </c>
       <c r="M19" t="n">
-        <v>41.43176432141109</v>
+        <v>41.4317643214111</v>
       </c>
       <c r="N19" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039457</v>
       </c>
       <c r="O19" t="n">
-        <v>37.35899041172069</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P19" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225443</v>
       </c>
       <c r="Q19" t="n">
-        <v>22.13234246735009</v>
+        <v>22.1323424673501</v>
       </c>
       <c r="R19" t="n">
-        <v>11.88433024031196</v>
+        <v>11.88433024031197</v>
       </c>
       <c r="S19" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118892</v>
       </c>
       <c r="T19" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01441689879536431</v>
+        <v>0.01441689879536432</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>43.28534947792182</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,22 +35018,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M6" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35258,13 +35258,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="N9" t="n">
         <v>226.4350751681936</v>
       </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35407,10 +35407,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K11" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L11" t="n">
         <v>274.8802469209098</v>
@@ -35428,7 +35428,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>29.03928828696146</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L12" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M12" t="n">
-        <v>403.4526632366292</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N12" t="n">
-        <v>405.7415719969023</v>
+        <v>14.50290175900885</v>
       </c>
       <c r="O12" t="n">
-        <v>222.9093633908061</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P12" t="n">
         <v>244.6906557616239</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,22 +35568,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L13" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M13" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N13" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O13" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P13" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K14" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L14" t="n">
         <v>274.8802469209098</v>
@@ -35665,7 +35665,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>29.03928828696146</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35732,7 +35732,7 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M15" t="n">
-        <v>300.0857567541445</v>
+        <v>300.0857567541446</v>
       </c>
       <c r="N15" t="n">
         <v>405.7415719969023</v>
@@ -35805,22 +35805,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L16" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M16" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N16" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O16" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P16" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167969</v>
       </c>
       <c r="K17" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L17" t="n">
         <v>274.8802469209098</v>
       </c>
       <c r="M17" t="n">
-        <v>322.6315268094074</v>
+        <v>322.6315268094071</v>
       </c>
       <c r="N17" t="n">
         <v>313.0722467132387</v>
@@ -35902,7 +35902,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q17" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680307</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L18" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M18" t="n">
-        <v>329.125045041106</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N18" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O18" t="n">
-        <v>326.276269873291</v>
+        <v>45.37675286849139</v>
       </c>
       <c r="P18" t="n">
-        <v>244.6906557616239</v>
+        <v>244.690655761624</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243102</v>
       </c>
       <c r="L19" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M19" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N19" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O19" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576038</v>
       </c>
       <c r="P19" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714792</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,7 +36206,7 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M21" t="n">
-        <v>300.0857567541446</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N21" t="n">
         <v>405.7415719969023</v>
@@ -36215,7 +36215,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P21" t="n">
-        <v>244.6906557616239</v>
+        <v>170.3630375661007</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L24" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M24" t="n">
-        <v>403.4526632366292</v>
+        <v>12.2139929987362</v>
       </c>
       <c r="N24" t="n">
         <v>405.7415719969023</v>
@@ -36452,10 +36452,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P24" t="n">
-        <v>141.323749279139</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K27" t="n">
-        <v>141.3237492791391</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>300.7391464461244</v>
@@ -36683,13 +36683,13 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N27" t="n">
-        <v>405.7415719969023</v>
+        <v>302.3746655144175</v>
       </c>
       <c r="O27" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L30" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M30" t="n">
-        <v>300.0857567541445</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N30" t="n">
-        <v>405.7415719969023</v>
+        <v>153.8813432790641</v>
       </c>
       <c r="O30" t="n">
         <v>326.276269873291</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37163,7 +37163,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P33" t="n">
-        <v>170.3630375661004</v>
+        <v>141.323749279139</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37394,16 +37394,16 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N36" t="n">
-        <v>302.3746655144175</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O36" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P36" t="n">
-        <v>244.6906557616239</v>
+        <v>60.02388433300664</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>38.06115762167967</v>
       </c>
       <c r="K38" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726431</v>
       </c>
       <c r="L38" t="n">
         <v>274.8802469209098</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K39" t="n">
         <v>177.5326105223148</v>
@@ -37631,7 +37631,7 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N39" t="n">
-        <v>153.8813432790641</v>
+        <v>14.50290175900885</v>
       </c>
       <c r="O39" t="n">
         <v>326.276269873291</v>
@@ -37640,7 +37640,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>38.06115762167952</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K41" t="n">
         <v>179.0082576726432</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>87.03308673054588</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M42" t="n">
-        <v>403.4526632366292</v>
+        <v>329.1250450411059</v>
       </c>
       <c r="N42" t="n">
         <v>405.7415719969023</v>
@@ -37877,7 +37877,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>116.0723750175074</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M45" t="n">
         <v>403.4526632366292</v>
@@ -38111,7 +38111,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P45" t="n">
-        <v>244.6906557616239</v>
+        <v>30.98459604604517</v>
       </c>
       <c r="Q45" t="n">
         <v>110.3391532330937</v>
